--- a/Storage/标定/5g以下标定数据/力标定数据与曲线.xlsx
+++ b/Storage/标定/5g以下标定数据/力标定数据与曲线.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{920F4C12-71E0-487A-A9A8-3D35DC83EDAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73D8DFB3-0352-4AFF-8727-F846A8661626}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,65 +120,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:rPr>
-              <a:t>力标定结果</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -250,14 +192,11 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:ln>
-                        <a:noFill/>
-                      </a:ln>
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -359,34 +298,22 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>砝码重量 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/ mN</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -405,13 +332,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -440,13 +364,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -473,34 +394,22 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>电压变化</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN">
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>/ V</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US">
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -519,13 +428,10 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -554,13 +460,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -572,7 +475,9 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -592,7 +497,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -607,7 +514,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
